--- a/数据整理/stocks/A股/创业板/300083-创世纪.xlsx
+++ b/数据整理/stocks/A股/创业板/300083-创世纪.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,748 +512,1018 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>125.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>90.65</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.31</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9051</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏复兴混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6720</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7702</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>42.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5989</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3113</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0404</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9054</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8525</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007349</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6860</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519029</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏稳增混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6228</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信达澳银先进智造股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2926</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2210</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>610002</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>信达澳银精华配置混合</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>77.15</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>2.33</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2141</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1852</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>160919</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>大成产业升级股票(LOF)</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>90.69</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>5.31</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1609</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1518</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1309</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>007484</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>信达澳银核心科技混合</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>91.41</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>2.01</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007350</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000031</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华夏复兴混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>93.53</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000612</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华宝生态中国混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>91.59</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007590</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝绿色领先股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002634</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华宝未来主导产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
         <is>
           <t>3.49</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>860016</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>光大阳光启明星创新驱动主题混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>000458</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>英大领先回报混合</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>92.13</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>2.26</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>860052</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>光大阳光启明星创新驱动主题混合B</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>860053</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>光大阳光启明星创新驱动主题混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>010106</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华夏核心科技6个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>010107</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华夏核心科技6个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>160726</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>嘉实瑞享定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>96.45</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>006257</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>信达澳银先进智造股票</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>86.72</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001878</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>嘉实沪港深精选股票</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>519029</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华夏稳增混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>93.95</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001760</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>嘉实创新成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>93.17</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>007590</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华宝绿色领先股票</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>89.37</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>002634</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>华宝未来主导产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>91.48</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>009591</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>博时研究精选一年持有期灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>89.46</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>009592</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>博时研究精选一年持有期灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>89.46</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>160527</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>博时研究优选3年封闭运作灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>89.22</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>160528</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>博时研究优选3年封闭运作灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>89.22</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>007349</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>华夏科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>89.02</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>007350</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>华夏科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>89.02</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>009138</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>嘉实瑞成两年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>92.75</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>009139</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>嘉实瑞成两年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>92.75</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1253,7 +1533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1274,15 +1554,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001410</t>
+          <t>501207</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>信达澳银新能源产业股票</t>
+          <t>华夏创新未来18个月封闭运作混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>80.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5816</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001878</t>
+          <t>000031</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实沪港深精选股票</t>
+          <t>华夏复兴混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.73</t>
+          <t>37.67</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4410</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1360,15 +1670,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>42.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>91.42</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.30</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8163</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009592</t>
+          <t>001878</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时研究精选一年持有期灵活配置混合C</t>
+          <t>嘉实沪港深精选股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.42</t>
+          <t>39.94</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7454</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>160527</t>
+          <t>001410</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+          <t>信达澳银新能源产业股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>95.19</t>
+          <t>89.27</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4908</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>160528</t>
+          <t>160726</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>95.19</t>
+          <t>31.16</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4894</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>610002</t>
+          <t>007349</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>信达澳银精华配置混合</t>
+          <t>华夏科技创新混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>80.84</t>
+          <t>18.13</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0860</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009907</t>
+          <t>160527</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>湘财长泽灵活配置混合A</t>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>74.89</t>
+          <t>23.76</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0288</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009908</t>
+          <t>009138</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>湘财长泽灵活配置混合C</t>
+          <t>嘉实瑞成两年持有期混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>74.89</t>
+          <t>22.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9702</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010076</t>
+          <t>519029</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>湘财长弘灵活配置混合A</t>
+          <t>华夏稳增混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>82.93</t>
+          <t>11.56</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8739</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010077</t>
+          <t>010106</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>湘财长弘灵活配置混合C</t>
+          <t>华夏核心科技6个月定期开放混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>82.93</t>
+          <t>17.84</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8438</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000031</t>
+          <t>398021</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华夏复兴混合</t>
+          <t>中海能源策略混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>10.54</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6.48</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8358</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>006257</t>
+          <t>011188</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>信达澳银先进智造股票</t>
+          <t>信达澳银星奕混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>46.80</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
+          <t>74.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8050</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010106</t>
+          <t>398061</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华夏核心科技6个月定期开放混合A</t>
+          <t>中海消费混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.97</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3496</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>010107</t>
+          <t>004355</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华夏核心科技6个月定期开放混合C</t>
+          <t>嘉实丰和灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>94.97</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3409</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>000755</t>
+          <t>398011</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>富安达新兴成长灵活配置混合</t>
+          <t>中海分红增利混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>89.79</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2859</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>398011</t>
+          <t>006257</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中海分红增利混合</t>
+          <t>信达澳银先进智造股票</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>90.16</t>
+          <t>14.26</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2353</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>398021</t>
+          <t>009139</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中海能源策略混合</t>
+          <t>嘉实瑞成两年持有期混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>90.98</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>7.93</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2315</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>398031</t>
+          <t>001760</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中海蓝筹混合</t>
+          <t>嘉实创新成长灵活配置混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>77.59</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.82</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>2</v>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2107</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>398061</t>
+          <t>004640</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中海消费混合</t>
+          <t>华夏节能环保股票</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>92.75</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1965</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1854,25 +2344,35 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>400023</t>
+          <t>009511</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>东方多策略灵活配置混合A</t>
+          <t>信达澳银研究优选混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>81.60</t>
+          <t>10.31</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1711</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1882,25 +2382,35 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>002068</t>
+          <t>009437</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>东方多策略灵活配置混合C</t>
+          <t>信达澳银科技创新一年定期开放混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>81.60</t>
+          <t>10.01</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1672</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>501207</t>
+          <t>010107</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华夏创新未来18个月封闭运作混合A</t>
+          <t>华夏核心科技6个月定期开放混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>95.12</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>2</v>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1135</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>007349</t>
+          <t>009592</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华夏科技创新混合A</t>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>92.80</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>3</v>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1032</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>007350</t>
+          <t>011223</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>华夏科技创新混合C</t>
+          <t>信达澳银星奕混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>92.80</t>
+          <t>5.68</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>3</v>
+          <t>74.31</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>007484</t>
+          <t>007350</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>信达澳银核心科技混合</t>
+          <t>华夏科技创新混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>95.57</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>7</v>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>011188</t>
+          <t>007484</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>信达澳银星奕混合A</t>
+          <t>信达澳银核心科技混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>74.31</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>6</v>
+          <t>95.57</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -2050,26 +2610,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>011223</t>
+          <t>610002</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>信达澳银星奕混合C</t>
+          <t>信达澳银精华配置混合</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>74.31</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>6</v>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -2078,26 +2648,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>011229</t>
+          <t>009907</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>创金合信数字经济主题股票A</t>
+          <t>湘财长泽灵活配置混合A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>92.21</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>4</v>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -2106,26 +2686,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>011230</t>
+          <t>009380</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>创金合信数字经济主题股票C</t>
+          <t>富安达科技领航混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>92.21</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>4</v>
+          <t>85.13</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -2134,26 +2724,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>001574</t>
+          <t>000755</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>中海混改红利主题精选灵活配置混合</t>
+          <t>富安达新兴成长灵活配置混合</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>89.89</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>1</v>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -2162,26 +2762,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>519029</t>
+          <t>398031</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>华夏稳增混合</t>
+          <t>中海蓝筹混合</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>94.04</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>7.56</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>1</v>
+          <t>77.59</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -2190,26 +2800,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>001760</t>
+          <t>160528</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>嘉实创新成长灵活配置混合</t>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>93.35</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>4</v>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -2218,26 +2838,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>160726</t>
+          <t>009438</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>嘉实瑞享定期开放灵活配置混合</t>
+          <t>信达澳银科技创新一年定期开放混合C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>98.20</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>4</v>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -2246,25 +2876,35 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>168401</t>
+          <t>011229</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>红土创新转型精选灵活配置混合（LOF）</t>
+          <t>创金合信数字经济主题股票A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>91.77</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2274,26 +2914,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>004355</t>
+          <t>009908</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>嘉实丰和灵活配置混合</t>
+          <t>湘财长泽灵活配置混合C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>85.79</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>9</v>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -2302,26 +2952,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>004640</t>
+          <t>168401</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>华夏节能环保股票</t>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>93.68</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>7</v>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -2330,26 +2990,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>009138</t>
+          <t>400023</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>嘉实瑞成两年持有期混合A</t>
+          <t>东方多策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>92.11</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>4</v>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="40">
@@ -2358,25 +3028,35 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>009139</t>
+          <t>011230</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>嘉实瑞成两年持有期混合C</t>
+          <t>创金合信数字经济主题股票C</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>92.11</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2386,25 +3066,35 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>009437</t>
+          <t>002068</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>信达澳银科技创新一年定期开放混合A</t>
+          <t>东方多策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>95.07</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2414,25 +3104,35 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>009438</t>
+          <t>010076</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>信达澳银科技创新一年定期开放混合C</t>
+          <t>湘财长弘灵活配置混合A</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>95.07</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
+          <t>82.93</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2442,26 +3142,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>009511</t>
+          <t>001574</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>信达澳银研究优选混合</t>
+          <t>中海混改红利主题精选灵活配置混合</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>9</v>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -2470,26 +3180,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>009380</t>
+          <t>010077</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>富安达科技领航混合</t>
+          <t>湘财长弘灵活配置混合C</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>85.13</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>8</v>
+          <t>82.93</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300083-创世纪.xlsx
+++ b/数据整理/stocks/A股/创业板/300083-创世纪.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3215,4 +3216,1048 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501207</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7404</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏复兴混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8031</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4269</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4238</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2197</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160314</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0945</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007349</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8877</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8405</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>28.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7920</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519029</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏稳增混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5931</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2895</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1872</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1546</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1248</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007350</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009700</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长江添利混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009701</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长江添利混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001797</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华融新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>62.86</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300083-创世纪.xlsx
+++ b/数据整理/stocks/A股/创业板/300083-创世纪.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4260,4 +4261,858 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012344</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>68.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0404</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3219</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1477</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1266</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160314</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0862</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0610</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9516</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2282</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2211</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2080</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>96.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012345</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>68.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160722</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实惠泽灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300083-创世纪.xlsx
+++ b/数据整理/stocks/A股/创业板/300083-创世纪.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5115,4 +5116,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>43</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300083-创世纪.xlsx
+++ b/数据整理/stocks/A股/创业板/300083-创世纪.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5124,7 +5125,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5135,17 +5136,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5155,14 +5176,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.83</v>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9432</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -5171,14 +5214,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.91</v>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5432</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -5187,14 +5252,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>43</v>
-      </c>
-      <c r="D4" t="n">
-        <v>23.18</v>
+          <t>009611</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4019</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -5203,13 +5290,759 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011855</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华长荣混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>63.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3242</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时内需增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1447</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008978</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华长丰混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>562360</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011175</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>24.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009671</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>96.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009700</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长江添利混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009612</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴全汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009701</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长江添利混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011176</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009672</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>43</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23.18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>27</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>16.29</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300083-创世纪.xlsx
+++ b/数据整理/stocks/A股/创业板/300083-创世纪.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5941,7 +5942,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5952,17 +5953,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5972,14 +5993,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.13</v>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2434</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -5988,14 +6031,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.83</v>
+          <t>011855</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华长荣混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>67.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5777</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -6004,14 +6069,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>26</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14.91</v>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时内需增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -6020,14 +6107,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>43</v>
-      </c>
-      <c r="D5" t="n">
-        <v>23.18</v>
+          <t>014107</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>69.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1508</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -6036,13 +6145,775 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>008978</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华长丰混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>70.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1252</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012153</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>562500</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004677</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009700</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长江添利混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009701</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长江添利混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>562360</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003659</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>山西证券策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012154</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014108</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>69.12</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004696</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东兴量化优享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>68.71</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.91</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>43</v>
+      </c>
+      <c r="D6" t="n">
+        <v>23.18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>27</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>16.29</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300083-创世纪.xlsx
+++ b/数据整理/stocks/A股/创业板/300083-创世纪.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6796,7 +6797,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6807,17 +6808,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6827,14 +6848,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.65</v>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3322</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -6843,14 +6886,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.13</v>
+          <t>014107</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1472</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -6859,14 +6924,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>21</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.83</v>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -6875,14 +6962,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>26</v>
-      </c>
-      <c r="D5" t="n">
-        <v>14.91</v>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -6891,14 +7000,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>43</v>
-      </c>
-      <c r="D6" t="n">
-        <v>23.18</v>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -6907,13 +7038,677 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>009700</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长江添利混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012216</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>红塔红土盛利混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>53.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009701</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长江添利混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000714</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>74.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003659</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>山西证券策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002052</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014108</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005104</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富荣福康混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012217</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>红塔红土盛利混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>53.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005105</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富荣福康混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004696</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东兴量化优享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>26</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14.91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>43</v>
+      </c>
+      <c r="D7" t="n">
+        <v>23.18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>27</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>16.29</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300083-创世纪.xlsx
+++ b/数据整理/stocks/A股/创业板/300083-创世纪.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>1.79</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>2.65</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>6.13</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>9.83</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>14.91</v>
+        <v>9.83</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
-        <v>23.18</v>
+        <v>14.91</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>43</v>
+      </c>
+      <c r="D8" t="n">
+        <v>23.18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>27</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>16.29</v>
       </c>
     </row>
@@ -600,6 +617,516 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9870</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013733</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>红塔红土盛丰混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>68.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000743</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>红塔红土盛世普益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003659</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>山西证券策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013734</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>红塔红土盛丰混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>68.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002023</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>红塔红土稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>62.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004696</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东兴量化优享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>红塔红土稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>62.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1377,7 +1904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2231,7 +2758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3047,7 +3574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3901,7 +4428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4945,7 +5472,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6635,7 +7162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300083-创世纪.xlsx
+++ b/数据整理/stocks/A股/创业板/300083-创世纪.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>1.09</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>1.79</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>2.65</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>6.13</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>9.83</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>14.91</v>
+        <v>9.83</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D8" t="n">
-        <v>23.18</v>
+        <v>14.91</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1112 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>43</v>
+      </c>
+      <c r="D9" t="n">
+        <v>23.18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>27</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>16.29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>125.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9051</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏复兴混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6720</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7702</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>42.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5989</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3113</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0404</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9054</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8525</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007349</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6860</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519029</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏稳增混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6228</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信达澳银先进智造股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2926</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2210</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信达澳银精华配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2141</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1852</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1609</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1518</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1309</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信达澳银核心科技混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007350</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007590</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝绿色领先股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002634</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华宝未来主导产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1716,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6955</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159667</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证机床ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159663</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证机床ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005848</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华裕利混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003659</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>山西证券策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>50.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1126,7 +2623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1904,7 +3401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2758,7 +4255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3574,7 +5071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4428,7 +5925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5472,7 +6969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7160,1086 +8657,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001410</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>信达澳银新能源产业股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>125.76</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.65</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.9051</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000031</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏复兴混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>49.85</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.53</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.6720</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010106</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华夏核心科技6个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>35.69</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.7702</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009591</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博时研究精选一年持有期灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>42.30</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.46</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.5989</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>160726</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>嘉实瑞享定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>31.00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>96.45</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.3113</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001878</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>嘉实沪港深精选股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>30.42</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.0404</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>160527</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>博时研究优选3年封闭运作灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>23.89</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.22</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.9054</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009138</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>嘉实瑞成两年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>20.25</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.75</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.8525</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007349</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华夏科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>13.53</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>89.02</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.6860</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>519029</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华夏稳增混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>14.22</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.95</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.6228</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006257</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>信达澳银先进智造股票</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>15.24</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>86.72</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2926</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009139</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>嘉实瑞成两年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.75</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2210</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>610002</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>信达澳银精华配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>9.19</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>77.15</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.2141</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001760</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>嘉实创新成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.17</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1852</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>160919</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>大成产业升级股票(LOF)</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>90.69</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1609</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>000612</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华宝生态中国混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>91.59</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1518</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>860053</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>光大阳光启明星创新驱动主题混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1309</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>007484</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>信达澳银核心科技混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>6.34</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>91.41</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1274</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>010107</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>华夏核心科技6个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1190</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>009592</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>博时研究精选一年持有期灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>89.46</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0907</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>007350</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>华夏科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>89.02</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0725</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>007590</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>华宝绿色领先股票</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>89.37</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0467</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>160528</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>博时研究优选3年封闭运作灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>89.22</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0307</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>860016</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>光大阳光启明星创新驱动主题混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0272</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>860052</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>光大阳光启明星创新驱动主题混合B</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0272</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>002634</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>华宝未来主导产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>91.48</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0154</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>000458</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>英大领先回报混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>92.13</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0102</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>